--- a/biology/Biologie cellulaire et moléculaire/ARN_non_codant/ARN_non_codant.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/ARN_non_codant/ARN_non_codant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un ARN non codant (ou ARNnm pour ARN non messager) est un ARN, issu de la transcription de l'ADN, qui ne sera pas traduit en protéine par les ribosomes. L'importance quantitative et fonctionnelle des ARN non codants a été longtemps sous estimée. On en connaît aujourd'hui une grande diversité, et il semblerait qu'une partie importante des génomes soit transcrite en ARN, alors que, dans le génome humain par exemple, seulement 1,2 % de l'information de l'ADN est traduite en protéines[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un ARN non codant (ou ARNnm pour ARN non messager) est un ARN, issu de la transcription de l'ADN, qui ne sera pas traduit en protéine par les ribosomes. L'importance quantitative et fonctionnelle des ARN non codants a été longtemps sous estimée. On en connaît aujourd'hui une grande diversité, et il semblerait qu'une partie importante des génomes soit transcrite en ARN, alors que, dans le génome humain par exemple, seulement 1,2 % de l'information de l'ADN est traduite en protéines.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Différents types d'ARN non codant</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les ARN ribosomiques sont des ARN formant les ribosomes, associés à des protéines. Chez les eucaryotes, par exemple, on distingue les ARNr 5S, 5.8S, 18S et 28S.
 Les ARN de transfert sont des ARN intervenant dans la traduction, qui associent spécifiquement à un codon de trois nucléotides un acide aminé déterminé par le code génétique.
